--- a/pivot table task.xlsx
+++ b/pivot table task.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be8f436690462624/Desktop/excel task 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0725837B-E4E0-412D-B4C3-586031CAB701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA6CA706-D32B-4C2C-B811-8164CA92D0DB}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{0725837B-E4E0-412D-B4C3-586031CAB701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0DD998E-A1FB-458D-A513-5A0C0B4EE834}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="58" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="196">
   <si>
     <t>ORDER DATE</t>
   </si>
@@ -707,7 +707,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -736,7 +736,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -9333,7 +9332,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3335B2D5-8137-4A90-8233-2D69D371ADAE}" name="PivotTable15" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3335B2D5-8137-4A90-8233-2D69D371ADAE}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:I18" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -9504,7 +9503,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{047B36C6-435E-41E3-9A6E-77C32A6A129C}" name="PivotTable16" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{047B36C6-435E-41E3-9A6E-77C32A6A129C}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -10222,7 +10221,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2CA832F-0E07-4B49-8D9A-2221B2B86744}" name="PivotTable17" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2CA832F-0E07-4B49-8D9A-2221B2B86744}" name="PivotTable17" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -10387,7 +10386,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92B4CBE7-E1F8-443D-B3B2-897E9A62FE32}" name="PivotTable18" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92B4CBE7-E1F8-443D-B3B2-897E9A62FE32}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -11096,7 +11095,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2529C016-930F-4C73-9A41-8495348D1119}" name="PivotTable21" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2529C016-930F-4C73-9A41-8495348D1119}" name="PivotTable21" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -11798,7 +11797,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AA1E5A1-49EA-4E4F-9BB9-36D4555F1FBE}" name="PivotTable22" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AA1E5A1-49EA-4E4F-9BB9-36D4555F1FBE}" name="PivotTable22" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -11881,7 +11880,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{82234DA7-850B-4C29-A922-810E7B04E502}" name="PivotTable23" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{82234DA7-850B-4C29-A922-810E7B04E502}" name="PivotTable23" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -11969,16 +11968,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{343D0AB3-D64B-4421-97B7-9455F4AF907E}" name="PivotTable24" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:C4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{343D0AB3-D64B-4421-97B7-9455F4AF907E}" name="PivotTable24" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:F4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="5">
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
+        <item x="1"/>
+        <item x="2"/>
         <item x="0"/>
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12015,9 +12014,18 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -12039,7 +12047,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAFED6DD-955B-449F-B94D-3FCAED46184E}" name="PivotTable25" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAFED6DD-955B-449F-B94D-3FCAED46184E}" name="PivotTable25" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -12578,7 +12586,7 @@
       <c r="A4" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>0.26000270331532244</v>
       </c>
     </row>
@@ -12586,7 +12594,7 @@
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>0.23383502890376759</v>
       </c>
     </row>
@@ -12594,7 +12602,7 @@
       <c r="A6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>0.25442706868179882</v>
       </c>
     </row>
@@ -12602,7 +12610,7 @@
       <c r="A7" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>0.25173519909911113</v>
       </c>
     </row>
@@ -12610,7 +12618,7 @@
       <c r="A8" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>1</v>
       </c>
     </row>
@@ -31207,28 +31215,28 @@
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>771186</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>2.4051210547595379E-2</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6">
         <v>872080</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>2.7197822178238424E-2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6">
         <v>1074820</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>3.3520735750864852E-2</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6">
         <v>2718086</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <v>8.4769768476698662E-2</v>
       </c>
     </row>
@@ -31236,28 +31244,28 @@
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>867220</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>2.7046251891353918E-2</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7">
         <v>909654</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>2.8369653857126979E-2</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7">
         <v>807257</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>2.5176167711836318E-2</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7">
         <v>2584131</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>8.0592073460317215E-2</v>
       </c>
     </row>
@@ -31265,28 +31273,28 @@
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>784136</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>2.4455086106269109E-2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8">
         <v>1031596</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>3.2172695816647605E-2</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8">
         <v>1013466</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>3.1607270034504385E-2</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8">
         <v>2829198</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>8.8235051957421096E-2</v>
       </c>
     </row>
@@ -31294,28 +31302,28 @@
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>908666</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>2.8338840802920828E-2</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9">
         <v>968855</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>3.0215973312651578E-2</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9">
         <v>836559</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>2.6090018030002934E-2</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9">
         <v>2714080</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>8.4644832145575333E-2</v>
       </c>
     </row>
@@ -31323,28 +31331,28 @@
       <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>893039</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>2.7851476837253308E-2</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10">
         <v>850502</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>2.6524862579391954E-2</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10">
         <v>791095</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>2.4672118539690768E-2</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10">
         <v>2534636</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>7.9048457956336027E-2</v>
       </c>
     </row>
@@ -31352,28 +31360,28 @@
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>786918</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>2.4541849179954847E-2</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11">
         <v>981050</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>3.0596302458445104E-2</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11">
         <v>771976</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>2.4075848516039566E-2</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11">
         <v>2539944</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>7.9214000154439523E-2</v>
       </c>
     </row>
@@ -31381,28 +31389,28 @@
       <c r="A12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>1056573</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>3.2951661054407742E-2</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12">
         <v>854835</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>2.6659997158213058E-2</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12">
         <v>873543</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>2.7243449200812914E-2</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12">
         <v>2784951</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>8.6855107413433719E-2</v>
       </c>
     </row>
@@ -31410,28 +31418,28 @@
       <c r="A13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13">
         <v>806719</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>2.5159388943452807E-2</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13">
         <v>1002597</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>3.1268295250934899E-2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13">
         <v>599246</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>1.8688865871274038E-2</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13">
         <v>2408562</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>7.5116550065661744E-2</v>
       </c>
     </row>
@@ -31439,28 +31447,28 @@
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14">
         <v>863089</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>2.6917417147502089E-2</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14">
         <v>814513</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>2.540246277390092E-2</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14">
         <v>1011288</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>3.1539344091122808E-2</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14">
         <v>2688890</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>8.3859224012525824E-2</v>
       </c>
     </row>
@@ -31468,28 +31476,28 @@
       <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15">
         <v>873208</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>2.7233001454700506E-2</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15">
         <v>931193</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>2.9041397151202152E-2</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15">
         <v>1059308</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>3.3036958324907564E-2</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15">
         <v>2863709</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <v>8.9311356930810229E-2</v>
       </c>
     </row>
@@ -31497,28 +31505,28 @@
       <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16">
         <v>923402</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>2.8798416882659522E-2</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16">
         <v>769352</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>2.3994013036042667E-2</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16">
         <v>812659</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>2.5344641516311644E-2</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16">
         <v>2505413</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="12">
         <v>7.8137071435013833E-2</v>
       </c>
     </row>
@@ -31526,28 +31534,28 @@
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17">
         <v>854090</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>2.6636762618351132E-2</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17">
         <v>1031897</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>3.2182083194497862E-2</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17">
         <v>1006745</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>3.1397660178917805E-2</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17">
         <v>2892732</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>9.0216505991766796E-2</v>
       </c>
     </row>
@@ -31555,28 +31563,28 @@
       <c r="A18" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18">
         <v>10388246</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>0.3239813634664212</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18">
         <v>11018124</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>0.34362555876729323</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18">
         <v>10657962</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>0.33239307776628563</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18">
         <v>32064332</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>1</v>
       </c>
     </row>
@@ -31615,7 +31623,7 @@
       <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>2107070</v>
       </c>
     </row>
@@ -31623,7 +31631,7 @@
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>2107070</v>
       </c>
     </row>
@@ -31631,7 +31639,7 @@
       <c r="A6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>2203948</v>
       </c>
     </row>
@@ -31639,7 +31647,7 @@
       <c r="A7" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>2203948</v>
       </c>
     </row>
@@ -31647,7 +31655,7 @@
       <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>2085086</v>
       </c>
     </row>
@@ -31655,7 +31663,7 @@
       <c r="A9" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>2085086</v>
       </c>
     </row>
@@ -31663,7 +31671,7 @@
       <c r="A10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>2161704</v>
       </c>
     </row>
@@ -31671,7 +31679,7 @@
       <c r="A11" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>2161704</v>
       </c>
     </row>
@@ -31679,7 +31687,7 @@
       <c r="A12" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>8557808</v>
       </c>
     </row>
@@ -31738,10 +31746,10 @@
       <c r="A5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>97950</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5">
         <v>97950</v>
       </c>
     </row>
@@ -31749,10 +31757,10 @@
       <c r="A6" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>95980</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6">
         <v>95980</v>
       </c>
     </row>
@@ -31760,10 +31768,10 @@
       <c r="A7" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>78866</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7">
         <v>78866</v>
       </c>
     </row>
@@ -31771,10 +31779,10 @@
       <c r="A8" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>94259</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8">
         <v>94259</v>
       </c>
     </row>
@@ -31782,10 +31790,10 @@
       <c r="A9" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>97950</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9">
         <v>97950</v>
       </c>
     </row>
@@ -31793,10 +31801,10 @@
       <c r="A10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>98236</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10">
         <v>98236</v>
       </c>
     </row>
@@ -31804,10 +31812,10 @@
       <c r="A11" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>32566</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11">
         <v>32566</v>
       </c>
     </row>
@@ -31815,10 +31823,10 @@
       <c r="A12" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>97708</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12">
         <v>97708</v>
       </c>
     </row>
@@ -31826,10 +31834,10 @@
       <c r="A13" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13">
         <v>98236</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13">
         <v>98236</v>
       </c>
     </row>
@@ -31837,10 +31845,10 @@
       <c r="A14" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14">
         <v>90547</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14">
         <v>90547</v>
       </c>
     </row>
@@ -31848,10 +31856,10 @@
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15">
         <v>97319</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15">
         <v>97319</v>
       </c>
     </row>
@@ -31859,10 +31867,10 @@
       <c r="A16" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16">
         <v>81486</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16">
         <v>81486</v>
       </c>
     </row>
@@ -31870,10 +31878,10 @@
       <c r="A17" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17">
         <v>96341</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17">
         <v>96341</v>
       </c>
     </row>
@@ -31881,10 +31889,10 @@
       <c r="A18" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18">
         <v>97319</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18">
         <v>97319</v>
       </c>
     </row>
@@ -31892,10 +31900,10 @@
       <c r="A19" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19">
         <v>95829</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19">
         <v>95829</v>
       </c>
     </row>
@@ -31903,10 +31911,10 @@
       <c r="A20" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20">
         <v>99878</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20">
         <v>99878</v>
       </c>
     </row>
@@ -31914,10 +31922,10 @@
       <c r="A21" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21">
         <v>76362</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21">
         <v>76362</v>
       </c>
     </row>
@@ -31925,10 +31933,10 @@
       <c r="A22" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22">
         <v>99878</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22">
         <v>99878</v>
       </c>
     </row>
@@ -31936,10 +31944,10 @@
       <c r="A23" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23">
         <v>87871</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23">
         <v>87871</v>
       </c>
     </row>
@@ -31947,10 +31955,10 @@
       <c r="A24" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24">
         <v>86024</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24">
         <v>86024</v>
       </c>
     </row>
@@ -31958,10 +31966,10 @@
       <c r="A25" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25">
         <v>99878</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25">
         <v>99878</v>
       </c>
     </row>
@@ -32008,7 +32016,7 @@
       <c r="A4" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>8336813</v>
       </c>
     </row>
@@ -32016,7 +32024,7 @@
       <c r="A5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>2203948</v>
       </c>
     </row>
@@ -32024,7 +32032,7 @@
       <c r="A6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>2084910</v>
       </c>
     </row>
@@ -32032,7 +32040,7 @@
       <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>2037353</v>
       </c>
     </row>
@@ -32040,7 +32048,7 @@
       <c r="A8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>2010602</v>
       </c>
     </row>
@@ -32048,7 +32056,7 @@
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>7497764</v>
       </c>
     </row>
@@ -32056,7 +32064,7 @@
       <c r="A10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>2107070</v>
       </c>
     </row>
@@ -32064,7 +32072,7 @@
       <c r="A11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>1949716</v>
       </c>
     </row>
@@ -32072,7 +32080,7 @@
       <c r="A12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>1765634</v>
       </c>
     </row>
@@ -32080,7 +32088,7 @@
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13">
         <v>1675344</v>
       </c>
     </row>
@@ -32088,7 +32096,7 @@
       <c r="A14" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14">
         <v>8158034</v>
       </c>
     </row>
@@ -32096,7 +32104,7 @@
       <c r="A15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15">
         <v>2161704</v>
       </c>
     </row>
@@ -32104,7 +32112,7 @@
       <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16">
         <v>2012690</v>
       </c>
     </row>
@@ -32112,7 +32120,7 @@
       <c r="A17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17">
         <v>2011011</v>
       </c>
     </row>
@@ -32120,7 +32128,7 @@
       <c r="A18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18">
         <v>1972629</v>
       </c>
     </row>
@@ -32128,7 +32136,7 @@
       <c r="A19" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19">
         <v>8071721</v>
       </c>
     </row>
@@ -32136,7 +32144,7 @@
       <c r="A20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20">
         <v>2110959</v>
       </c>
     </row>
@@ -32144,7 +32152,7 @@
       <c r="A21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21">
         <v>2085086</v>
       </c>
     </row>
@@ -32152,7 +32160,7 @@
       <c r="A22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22">
         <v>1954187</v>
       </c>
     </row>
@@ -32160,7 +32168,7 @@
       <c r="A23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23">
         <v>1921489</v>
       </c>
     </row>
@@ -32168,7 +32176,7 @@
       <c r="A24" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24">
         <v>32064332</v>
       </c>
     </row>
@@ -32218,7 +32226,7 @@
       <c r="A4" s="10">
         <v>2012</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>60180.020833333336</v>
       </c>
     </row>
@@ -32226,7 +32234,7 @@
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>66035.8125</v>
       </c>
     </row>
@@ -32234,7 +32242,7 @@
       <c r="A6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>57712.625</v>
       </c>
     </row>
@@ -32242,7 +32250,7 @@
       <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>56791.625</v>
       </c>
     </row>
@@ -32250,7 +32258,7 @@
       <c r="A8" s="10">
         <v>2013</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>63876.875</v>
       </c>
     </row>
@@ -32258,7 +32266,7 @@
       <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>64493.5625</v>
       </c>
     </row>
@@ -32266,7 +32274,7 @@
       <c r="A10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>64474.75</v>
       </c>
     </row>
@@ -32274,7 +32282,7 @@
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>62662.3125</v>
       </c>
     </row>
@@ -32282,7 +32290,7 @@
       <c r="A12" s="10">
         <v>2014</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>65574.875</v>
       </c>
     </row>
@@ -32290,7 +32298,7 @@
       <c r="A13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13">
         <v>67176.25</v>
       </c>
     </row>
@@ -32298,7 +32306,7 @@
       <c r="A14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14">
         <v>66206.75</v>
       </c>
     </row>
@@ -32306,7 +32314,7 @@
       <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15">
         <v>63341.625</v>
       </c>
     </row>
@@ -32314,7 +32322,7 @@
       <c r="A16" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16">
         <v>63210.590277777781</v>
       </c>
     </row>
@@ -32349,7 +32357,7 @@
       <c r="A4" s="10">
         <v>2012</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>10090</v>
       </c>
     </row>
@@ -32357,7 +32365,7 @@
       <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>10090</v>
       </c>
     </row>
@@ -32365,7 +32373,7 @@
       <c r="A6" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>10090</v>
       </c>
     </row>
@@ -32378,8 +32386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFCDBD7-0CFC-4A42-8A6E-E98C50BF2F66}">
   <dimension ref="A3:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32424,19 +32432,19 @@
       <c r="A5" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>2084910</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5">
         <v>2203948</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5">
         <v>2037353</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5">
         <v>2010602</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5">
         <v>8336813</v>
       </c>
     </row>
@@ -32444,19 +32452,19 @@
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>2107070</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6">
         <v>1765634</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6">
         <v>1675344</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6">
         <v>1949716</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6">
         <v>7497764</v>
       </c>
     </row>
@@ -32464,19 +32472,19 @@
       <c r="A7" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>2011011</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7">
         <v>1972629</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7">
         <v>2012690</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7">
         <v>2161704</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7">
         <v>8158034</v>
       </c>
     </row>
@@ -32484,19 +32492,19 @@
       <c r="A8" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>1954187</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8">
         <v>1921489</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8">
         <v>2085086</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8">
         <v>2110959</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8">
         <v>8071721</v>
       </c>
     </row>
@@ -32504,19 +32512,19 @@
       <c r="A9" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>8157178</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9">
         <v>7863700</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9">
         <v>7810473</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9">
         <v>8232981</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9">
         <v>32064332</v>
       </c>
     </row>
@@ -32527,23 +32535,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355E0B2E-7CC8-48CC-B4ED-FFF230123CEC}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>182</v>
       </c>
@@ -32551,36 +32559,63 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
+        <v>0.24210289230760082</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.23805195942723986</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.25831987998594103</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.26152526827921829</v>
+      </c>
+      <c r="F3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="12">
+        <v>0.24210289230760082</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.23805195942723986</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.25831987998594103</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.26152526827921829</v>
+      </c>
+      <c r="F4" s="12">
         <v>1</v>
       </c>
     </row>
